--- a/demo/readme.xlsx
+++ b/demo/readme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\mybatis.git\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4CEF40-C181-4B4D-8AF1-41CF2D501424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE40821-D975-4C53-9969-D93C3614400E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="3615" windowWidth="17370" windowHeight="10920" xr2:uid="{3FEC3E38-82F9-4CA3-B979-9A554AC62CA6}"/>
+    <workbookView xWindow="7545" yWindow="3240" windowWidth="17370" windowHeight="10920" xr2:uid="{3FEC3E38-82F9-4CA3-B979-9A554AC62CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>demo1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>csdn，Mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springboot+mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决mapper类冲突问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,16 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E291C-EC0A-464C-84DD-E7239A794D83}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,16 +442,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/demo/readme.xlsx
+++ b/demo/readme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\mybatis.git\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE40821-D975-4C53-9969-D93C3614400E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4300CE33-2BE3-47D6-B978-913EAB9D1015}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3240" windowWidth="17370" windowHeight="10920" xr2:uid="{3FEC3E38-82F9-4CA3-B979-9A554AC62CA6}"/>
+    <workbookView xWindow="31560" yWindow="1308" windowWidth="17280" windowHeight="9024" xr2:uid="{3FEC3E38-82F9-4CA3-B979-9A554AC62CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>demo1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>解决mapper类冲突问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E291C-EC0A-464C-84DD-E7239A794D83}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,6 +469,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
